--- a/belluno_corretto.xlsx
+++ b/belluno_corretto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriele/Desktop/Progetto DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC34C0D8-2564-DA4B-BD2D-79E33CD1A4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8531BDC8-BFAC-9149-B84C-B5EC00667DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4215,7 +4215,7 @@
   <dimension ref="A1:I1441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1137" sqref="E1137"/>
+      <selection activeCell="F1450" sqref="F1450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -36542,10 +36542,10 @@
         <v>465</v>
       </c>
       <c r="D1115">
-        <v>46.590249999999997</v>
+        <v>46.1477633810809</v>
       </c>
       <c r="E1115">
-        <v>12.512840000000001</v>
+        <v>12.216884734217601</v>
       </c>
       <c r="F1115" t="s">
         <v>969</v>
@@ -37169,7 +37169,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="1137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1137">
         <v>194</v>
       </c>
@@ -38474,7 +38474,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="1182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1182">
         <v>194</v>
       </c>
@@ -38485,10 +38485,10 @@
         <v>537</v>
       </c>
       <c r="D1182">
-        <v>46.354239999999997</v>
+        <v>46.137725599596898</v>
       </c>
       <c r="E1182">
-        <v>12.14443</v>
+        <v>12.2191302256201</v>
       </c>
       <c r="F1182" t="s">
         <v>1028</v>
@@ -46018,7 +46018,7 @@
   <autoFilter ref="A1:I1441" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="28461"/>
+        <filter val="28840"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/belluno_corretto.xlsx
+++ b/belluno_corretto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriele/Desktop/Progetto DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8531BDC8-BFAC-9149-B84C-B5EC00667DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54093A45-77F6-B54C-8039-18A08AFDB5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4215,7 +4215,7 @@
   <dimension ref="A1:I1441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1450" sqref="F1450"/>
+      <selection activeCell="F1449" sqref="F1449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38474,7 +38474,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="1182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1182">
         <v>194</v>
       </c>
@@ -41925,7 +41925,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="1301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1301">
         <v>24</v>
       </c>
@@ -41936,10 +41936,10 @@
         <v>232</v>
       </c>
       <c r="D1301">
-        <v>46.044676000000003</v>
+        <v>46.125881</v>
       </c>
       <c r="E1301">
-        <v>12.017388</v>
+        <v>12.074794000000001</v>
       </c>
       <c r="F1301" t="s">
         <v>1143</v>
@@ -46018,7 +46018,7 @@
   <autoFilter ref="A1:I1441" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="28840"/>
+        <filter val="28473"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/belluno_corretto.xlsx
+++ b/belluno_corretto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabriele/Desktop/Progetto DA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54093A45-77F6-B54C-8039-18A08AFDB5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649F3A4A-A509-F24D-8907-84F63340CB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4215,7 +4215,7 @@
   <dimension ref="A1:I1441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1449" sqref="F1449"/>
+      <selection activeCell="F579" sqref="F579:G579"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20987,7 +20987,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>194</v>
       </c>
@@ -36687,10 +36687,10 @@
         <v>153</v>
       </c>
       <c r="D1120">
-        <v>46.097900000000003</v>
+        <v>46.144723971029102</v>
       </c>
       <c r="E1120">
-        <v>12.063829999999999</v>
+        <v>12.218948910277</v>
       </c>
       <c r="F1120" t="s">
         <v>972</v>
@@ -39326,10 +39326,10 @@
         <v>6</v>
       </c>
       <c r="D1211">
-        <v>46.097189999999998</v>
+        <v>46.139511505159497</v>
       </c>
       <c r="E1211">
-        <v>12.082549999999999</v>
+        <v>12.2182711642466</v>
       </c>
       <c r="F1211" t="s">
         <v>1056</v>
@@ -41925,7 +41925,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="1301" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1301">
         <v>24</v>
       </c>
@@ -46018,7 +46018,7 @@
   <autoFilter ref="A1:I1441" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="28473"/>
+        <filter val="14694"/>
       </filters>
     </filterColumn>
   </autoFilter>
